--- a/dgl_version/gnn_data/data/故障信息.xlsx
+++ b/dgl_version/gnn_data/data/故障信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gnn\dgl_version\gnn_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64221E56-CF1B-4B11-B33F-69A29C56E496}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47D78FC-9ACC-4A5E-9C82-DC75AC394620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="754">
   <si>
     <t>Description</t>
   </si>
@@ -3461,6 +3461,264 @@
   <si>
     <t>骨干网中进行标签转发的公网隧道正常</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高网络发送丢包率</t>
+  </si>
+  <si>
+    <t>网络发送丢包率波动</t>
+  </si>
+  <si>
+    <t>逐渐增加的网络发送丢包率</t>
+  </si>
+  <si>
+    <t>网络发送丢包率异常峰谷</t>
+  </si>
+  <si>
+    <t>高网络接收丢包率</t>
+  </si>
+  <si>
+    <t>网络接收丢包率波动</t>
+  </si>
+  <si>
+    <t>逐渐增加的网络接收丢包率</t>
+  </si>
+  <si>
+    <t>网络接收丢包率异常峰谷</t>
+  </si>
+  <si>
+    <t>低发送带宽</t>
+  </si>
+  <si>
+    <t>高发送带宽</t>
+  </si>
+  <si>
+    <t>发送带宽波动性</t>
+  </si>
+  <si>
+    <t>逐渐增加的发送带宽</t>
+  </si>
+  <si>
+    <t>发送带宽异常峰谷</t>
+  </si>
+  <si>
+    <t>低接收带宽</t>
+  </si>
+  <si>
+    <t>高接收带宽</t>
+  </si>
+  <si>
+    <t>接收带宽波动性</t>
+  </si>
+  <si>
+    <t>逐渐增加的接收带宽</t>
+  </si>
+  <si>
+    <t>接收带宽异常峰谷</t>
+  </si>
+  <si>
+    <t>低内存利用率</t>
+  </si>
+  <si>
+    <t>高内存利用率</t>
+  </si>
+  <si>
+    <t>内存使用波动性</t>
+  </si>
+  <si>
+    <t>渐进性内存下降</t>
+  </si>
+  <si>
+    <t>内存异常峰谷</t>
+  </si>
+  <si>
+    <t>高交换分区使用率</t>
+  </si>
+  <si>
+    <t>低IOPS</t>
+  </si>
+  <si>
+    <t>高IOPS</t>
+  </si>
+  <si>
+    <t>IOPS波动性</t>
+  </si>
+  <si>
+    <t>渐进性IOPS下降</t>
+  </si>
+  <si>
+    <t>IOPS异常峰谷</t>
+  </si>
+  <si>
+    <t>CPU占用率异常上升</t>
+  </si>
+  <si>
+    <t>CPU占用率波动</t>
+  </si>
+  <si>
+    <t>逐渐增加的CPU占用率</t>
+  </si>
+  <si>
+    <t>CPU占用率异常峰谷</t>
+  </si>
+  <si>
+    <t>网络拥塞</t>
+  </si>
+  <si>
+    <t>网络设备故障</t>
+  </si>
+  <si>
+    <t>不稳定的网络连接</t>
+  </si>
+  <si>
+    <t>防火墙或安全设置</t>
+  </si>
+  <si>
+    <t>恶劣的网络环境</t>
+  </si>
+  <si>
+    <t>动态网络条件</t>
+  </si>
+  <si>
+    <t>设备过热</t>
+  </si>
+  <si>
+    <t>噪声或电磁干扰</t>
+  </si>
+  <si>
+    <t>路由器或交换机配置错误</t>
+  </si>
+  <si>
+    <t>硬件老化</t>
+  </si>
+  <si>
+    <t>网络带宽不足</t>
+  </si>
+  <si>
+    <t>恶意攻击</t>
+  </si>
+  <si>
+    <t>定期维护</t>
+  </si>
+  <si>
+    <t>软件更新或配置更改</t>
+  </si>
+  <si>
+    <t>网络活动峰值</t>
+  </si>
+  <si>
+    <t>配置错误</t>
+  </si>
+  <si>
+    <t>带宽限制</t>
+  </si>
+  <si>
+    <t>应用程序需求</t>
+  </si>
+  <si>
+    <t>网络状况波动</t>
+  </si>
+  <si>
+    <t>应用程序内存泄漏</t>
+  </si>
+  <si>
+    <t>系统资源不足</t>
+  </si>
+  <si>
+    <t>应用程序占用过多内存</t>
+  </si>
+  <si>
+    <t>不合理的进程占用</t>
+  </si>
+  <si>
+    <t>内存泄漏</t>
+  </si>
+  <si>
+    <t>意外的内存释放</t>
+  </si>
+  <si>
+    <t>系统资源竞争</t>
+  </si>
+  <si>
+    <t>虚拟内存交换频繁</t>
+  </si>
+  <si>
+    <t>内存模块故障</t>
+  </si>
+  <si>
+    <t>定期任务或备份操作</t>
+  </si>
+  <si>
+    <t>其他周期性负载</t>
+  </si>
+  <si>
+    <t>虚拟机内存设置错误</t>
+  </si>
+  <si>
+    <t>物理内存不足</t>
+  </si>
+  <si>
+    <t>虚拟内存设置错误</t>
+  </si>
+  <si>
+    <t>运行大型应用程序</t>
+  </si>
+  <si>
+    <t>存储设备故障</t>
+  </si>
+  <si>
+    <t>存储资源不足</t>
+  </si>
+  <si>
+    <t>频繁读写操作</t>
+  </si>
+  <si>
+    <t>大量并发请求</t>
+  </si>
+  <si>
+    <t>不经意的负载增加</t>
+  </si>
+  <si>
+    <t>磁盘问题</t>
+  </si>
+  <si>
+    <t>存储控制器故障</t>
+  </si>
+  <si>
+    <t>网络存储带宽波动</t>
+  </si>
+  <si>
+    <t>硬件故障</t>
+  </si>
+  <si>
+    <t>系统资源耗尽</t>
+  </si>
+  <si>
+    <t>应用程序负载过重</t>
+  </si>
+  <si>
+    <t>不合理的并发请求</t>
+  </si>
+  <si>
+    <t>动态负载变化</t>
+  </si>
+  <si>
+    <t>硬件组件故障</t>
+  </si>
+  <si>
+    <t>虚拟化环境问题</t>
+  </si>
+  <si>
+    <t>应用程序代码漏洞</t>
+  </si>
+  <si>
+    <t>系统服务故障</t>
+  </si>
+  <si>
+    <t>虚拟机配置错误</t>
+  </si>
+  <si>
+    <t>操作系统问题</t>
   </si>
 </sst>
 </file>
@@ -3561,7 +3819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3570,6 +3828,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3910,10 +4171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C368"/>
+  <dimension ref="A1:C487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B357" workbookViewId="0">
-      <selection activeCell="C371" sqref="C371"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="C487" sqref="C487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7971,6 +8232,1299 @@
         <v>365</v>
       </c>
     </row>
+    <row r="369" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C369" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C370" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C371" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C372" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C373" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C374" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C375" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C376" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C377" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C378" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C379" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C380" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C381" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C382" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C383" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C384" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C385" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C386" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C387" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C388" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C389" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C390" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C391" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C392" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C393" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C394" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C395" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C396" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C397" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C398" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C399" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C400" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C401" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C402" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C403" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C404" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C405" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C406" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C407" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C408" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C409" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C410" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C411" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C412" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C413" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C414" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C415" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C416" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C417" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C418" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C419" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C420" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C421" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C422" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C423" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C424" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C425" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C426" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C427" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C428" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C429" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C430" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C431" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C432" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C433" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C434" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C435" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C436" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C437" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C438" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C439" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C440" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C441" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C442" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C443" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C444" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C445" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C446" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C447" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C448" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C449" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C450" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C451" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C452" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C453" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C454" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C455" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C456" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C457" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C458" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C459" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C460" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C461" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C462" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C463" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C464" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C465" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C466" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C467" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C468" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C469" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C470" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C471" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C472" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C473" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C474" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C475" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C476" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C477" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C478" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C479" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C480" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A481" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C481" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C482" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C483" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C484" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C485" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B486" s="4"/>
+    </row>
+    <row r="487" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B487" s="4"/>
+    </row>
   </sheetData>
   <sortState ref="A2:C539">
     <sortCondition ref="A1"/>
